--- a/3_Results/32_ResultsVMMC/vmmc_individual_unadjusted.xlsx
+++ b/3_Results/32_ResultsVMMC/vmmc_individual_unadjusted.xlsx
@@ -553,28 +553,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.821</v>
+        <v>-0.82</v>
       </c>
       <c r="E2">
-        <v>-1.648</v>
+        <v>-1.65</v>
       </c>
       <c r="F2">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,35 +584,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>-0.83</v>
+        <v>-0.09</v>
       </c>
       <c r="E3">
-        <v>-1.754</v>
+        <v>-1.27</v>
       </c>
       <c r="F3">
-        <v>0.093</v>
+        <v>1.08</v>
       </c>
       <c r="G3">
-        <v>0.078</v>
+        <v>0.88</v>
       </c>
       <c r="H3">
-        <v>0.222</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
-        <v>0.471</v>
-      </c>
-      <c r="J3">
-        <v>0.076</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,29 +619,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>-0.826</v>
-      </c>
-      <c r="E4">
-        <v>-1.619</v>
-      </c>
-      <c r="F4">
-        <v>-0.034</v>
-      </c>
-      <c r="G4">
-        <v>0.041</v>
-      </c>
-      <c r="H4">
-        <v>0.163</v>
-      </c>
-      <c r="I4">
-        <v>0.404</v>
-      </c>
-      <c r="J4">
-        <v>0.001</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="5">
@@ -660,32 +639,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.093</v>
+        <v>-0.91</v>
       </c>
       <c r="E5">
-        <v>-1.266</v>
+        <v>-1.74</v>
       </c>
       <c r="F5">
-        <v>1.08</v>
+        <v>-0.09</v>
       </c>
       <c r="G5">
-        <v>0.877</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>0.358</v>
+        <v>0.18</v>
       </c>
       <c r="I5">
-        <v>0.598</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -695,32 +674,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>-0.095</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>-1.397</v>
+        <v>-1.12</v>
       </c>
       <c r="F6">
-        <v>1.208</v>
+        <v>1.32</v>
       </c>
       <c r="G6">
-        <v>0.886</v>
+        <v>0.44</v>
       </c>
       <c r="H6">
-        <v>0.442</v>
+        <v>0.39</v>
       </c>
       <c r="I6">
-        <v>0.665</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -730,32 +709,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>-0.099</v>
-      </c>
-      <c r="E7">
-        <v>-1.206</v>
-      </c>
-      <c r="F7">
-        <v>1.007</v>
-      </c>
-      <c r="G7">
-        <v>0.86</v>
-      </c>
-      <c r="H7">
-        <v>0.319</v>
-      </c>
-      <c r="I7">
-        <v>0.5649999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -765,11 +729,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>-0.093</v>
+        <v>-0.83</v>
+      </c>
+      <c r="E8">
+        <v>-1.75</v>
+      </c>
+      <c r="F8">
+        <v>0.09</v>
+      </c>
+      <c r="G8">
+        <v>0.08</v>
+      </c>
+      <c r="H8">
+        <v>0.22</v>
+      </c>
+      <c r="I8">
+        <v>0.47</v>
+      </c>
+      <c r="J8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -785,17 +767,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.095</v>
+        <v>-0.09</v>
+      </c>
+      <c r="E9">
+        <v>-1.4</v>
+      </c>
+      <c r="F9">
+        <v>1.21</v>
+      </c>
+      <c r="G9">
+        <v>0.89</v>
+      </c>
+      <c r="H9">
+        <v>0.44</v>
+      </c>
+      <c r="I9">
+        <v>0.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,13 +806,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.101</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -829,22 +826,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.914</v>
+        <v>-0.93</v>
       </c>
       <c r="E11">
-        <v>-1.737</v>
+        <v>-1.84</v>
       </c>
       <c r="F11">
-        <v>-0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="G11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H11">
-        <v>0.176</v>
+        <v>0.22</v>
       </c>
       <c r="I11">
-        <v>0.42</v>
+        <v>0.47</v>
+      </c>
+      <c r="J11">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -860,35 +860,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.925</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>-1.844</v>
+        <v>-1.23</v>
       </c>
       <c r="F12">
-        <v>-0.007</v>
+        <v>1.44</v>
       </c>
       <c r="G12">
-        <v>0.048</v>
+        <v>0.44</v>
       </c>
       <c r="H12">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="I12">
-        <v>0.469</v>
-      </c>
-      <c r="J12">
-        <v>0.076</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -898,35 +895,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>-0.927</v>
-      </c>
-      <c r="E13">
-        <v>-1.699</v>
-      </c>
-      <c r="F13">
-        <v>-0.155</v>
-      </c>
-      <c r="G13">
-        <v>0.019</v>
-      </c>
-      <c r="H13">
-        <v>0.155</v>
-      </c>
-      <c r="I13">
-        <v>0.394</v>
-      </c>
-      <c r="J13">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -936,32 +915,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.102</v>
+        <v>-0.83</v>
       </c>
       <c r="E14">
-        <v>-1.12</v>
+        <v>-1.62</v>
       </c>
       <c r="F14">
-        <v>1.323</v>
+        <v>-0.03</v>
       </c>
       <c r="G14">
-        <v>0.435</v>
+        <v>0.04</v>
       </c>
       <c r="H14">
-        <v>0.388</v>
+        <v>0.16</v>
       </c>
       <c r="I14">
-        <v>0.623</v>
+        <v>0.4</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -971,26 +953,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.103</v>
+        <v>-0.1</v>
       </c>
       <c r="E15">
-        <v>-1.235</v>
+        <v>-1.21</v>
       </c>
       <c r="F15">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="G15">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="H15">
-        <v>0.466</v>
+        <v>0.32</v>
       </c>
       <c r="I15">
-        <v>0.6820000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1006,32 +988,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.107</v>
-      </c>
-      <c r="E16">
-        <v>-1.027</v>
-      </c>
-      <c r="F16">
-        <v>1.242</v>
-      </c>
-      <c r="G16">
-        <v>0.426</v>
-      </c>
-      <c r="H16">
-        <v>0.335</v>
-      </c>
-      <c r="I16">
-        <v>0.579</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1041,17 +1008,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.102</v>
+        <v>-0.93</v>
+      </c>
+      <c r="E17">
+        <v>-1.7</v>
+      </c>
+      <c r="F17">
+        <v>-0.15</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>0.16</v>
+      </c>
+      <c r="I17">
+        <v>0.39</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1061,11 +1046,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.103</v>
+        <v>0.11</v>
+      </c>
+      <c r="E18">
+        <v>-1.03</v>
+      </c>
+      <c r="F18">
+        <v>1.24</v>
+      </c>
+      <c r="G18">
+        <v>0.43</v>
+      </c>
+      <c r="H18">
+        <v>0.33</v>
+      </c>
+      <c r="I18">
+        <v>0.58</v>
       </c>
     </row>
     <row r="19">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -1173,25 +1173,25 @@
         <v>0.44</v>
       </c>
       <c r="E2">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="F2">
-        <v>1.007</v>
+        <v>1.01</v>
       </c>
       <c r="G2">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1201,35 +1201,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.436</v>
+        <v>0.91</v>
       </c>
       <c r="E3">
-        <v>0.173</v>
+        <v>0.28</v>
       </c>
       <c r="F3">
-        <v>1.097</v>
+        <v>2.94</v>
       </c>
       <c r="G3">
-        <v>0.078</v>
+        <v>0.88</v>
       </c>
       <c r="H3">
-        <v>0.222</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
-        <v>0.471</v>
-      </c>
-      <c r="J3">
-        <v>0.076</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1239,29 +1236,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.438</v>
-      </c>
-      <c r="E4">
-        <v>0.198</v>
-      </c>
-      <c r="F4">
-        <v>0.967</v>
-      </c>
-      <c r="G4">
-        <v>0.041</v>
-      </c>
-      <c r="H4">
-        <v>0.163</v>
-      </c>
-      <c r="I4">
-        <v>0.404</v>
-      </c>
-      <c r="J4">
-        <v>0.001</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -1277,32 +1256,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.911</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>0.282</v>
+        <v>0.18</v>
       </c>
       <c r="F5">
-        <v>2.945</v>
+        <v>0.91</v>
       </c>
       <c r="G5">
-        <v>0.877</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>0.358</v>
+        <v>0.18</v>
       </c>
       <c r="I5">
-        <v>0.598</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1312,32 +1291,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.909</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>0.247</v>
+        <v>-1.12</v>
       </c>
       <c r="F6">
-        <v>3.345</v>
+        <v>1.32</v>
       </c>
       <c r="G6">
-        <v>0.886</v>
+        <v>0.44</v>
       </c>
       <c r="H6">
-        <v>0.442</v>
+        <v>0.39</v>
       </c>
       <c r="I6">
-        <v>0.665</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1347,32 +1326,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.905</v>
-      </c>
-      <c r="E7">
-        <v>0.299</v>
-      </c>
-      <c r="F7">
-        <v>2.737</v>
-      </c>
-      <c r="G7">
-        <v>0.86</v>
-      </c>
-      <c r="H7">
-        <v>0.319</v>
-      </c>
-      <c r="I7">
-        <v>0.5649999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1382,11 +1346,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.911</v>
+        <v>0.44</v>
+      </c>
+      <c r="E8">
+        <v>0.17</v>
+      </c>
+      <c r="F8">
+        <v>1.1</v>
+      </c>
+      <c r="G8">
+        <v>0.08</v>
+      </c>
+      <c r="H8">
+        <v>0.22</v>
+      </c>
+      <c r="I8">
+        <v>0.47</v>
+      </c>
+      <c r="J8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -1402,17 +1384,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.909</v>
+        <v>0.91</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>3.35</v>
+      </c>
+      <c r="G9">
+        <v>0.89</v>
+      </c>
+      <c r="H9">
+        <v>0.44</v>
+      </c>
+      <c r="I9">
+        <v>0.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1426,13 +1423,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.904</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1446,22 +1443,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>0.176</v>
+        <v>0.16</v>
       </c>
       <c r="F11">
-        <v>0.914</v>
+        <v>0.99</v>
       </c>
       <c r="G11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H11">
-        <v>0.176</v>
+        <v>0.22</v>
       </c>
       <c r="I11">
-        <v>0.42</v>
+        <v>0.47</v>
+      </c>
+      <c r="J11">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -1477,35 +1477,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.396</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>0.158</v>
+        <v>-1.23</v>
       </c>
       <c r="F12">
-        <v>0.993</v>
+        <v>1.44</v>
       </c>
       <c r="G12">
-        <v>0.048</v>
+        <v>0.44</v>
       </c>
       <c r="H12">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="I12">
-        <v>0.469</v>
-      </c>
-      <c r="J12">
-        <v>0.076</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1515,35 +1512,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.396</v>
-      </c>
-      <c r="E13">
-        <v>0.183</v>
-      </c>
-      <c r="F13">
-        <v>0.857</v>
-      </c>
-      <c r="G13">
-        <v>0.019</v>
-      </c>
-      <c r="H13">
-        <v>0.155</v>
-      </c>
-      <c r="I13">
-        <v>0.394</v>
-      </c>
-      <c r="J13">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1553,32 +1532,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.102</v>
+        <v>0.44</v>
       </c>
       <c r="E14">
-        <v>-1.12</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
-        <v>1.323</v>
+        <v>0.97</v>
       </c>
       <c r="G14">
-        <v>0.435</v>
+        <v>0.04</v>
       </c>
       <c r="H14">
-        <v>0.388</v>
+        <v>0.16</v>
       </c>
       <c r="I14">
-        <v>0.623</v>
+        <v>0.4</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1588,26 +1570,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.103</v>
+        <v>0.91</v>
       </c>
       <c r="E15">
-        <v>-1.235</v>
+        <v>0.3</v>
       </c>
       <c r="F15">
-        <v>1.44</v>
+        <v>2.74</v>
       </c>
       <c r="G15">
-        <v>0.44</v>
+        <v>0.86</v>
       </c>
       <c r="H15">
-        <v>0.466</v>
+        <v>0.32</v>
       </c>
       <c r="I15">
-        <v>0.6820000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1623,32 +1605,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.107</v>
-      </c>
-      <c r="E16">
-        <v>-1.027</v>
-      </c>
-      <c r="F16">
-        <v>1.242</v>
-      </c>
-      <c r="G16">
-        <v>0.426</v>
-      </c>
-      <c r="H16">
-        <v>0.335</v>
-      </c>
-      <c r="I16">
-        <v>0.579</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1658,17 +1625,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.102</v>
+        <v>0.4</v>
+      </c>
+      <c r="E17">
+        <v>0.18</v>
+      </c>
+      <c r="F17">
+        <v>0.86</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>0.16</v>
+      </c>
+      <c r="I17">
+        <v>0.39</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1678,11 +1663,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.103</v>
+        <v>0.11</v>
+      </c>
+      <c r="E18">
+        <v>-1.03</v>
+      </c>
+      <c r="F18">
+        <v>1.24</v>
+      </c>
+      <c r="G18">
+        <v>0.43</v>
+      </c>
+      <c r="H18">
+        <v>0.33</v>
+      </c>
+      <c r="I18">
+        <v>0.58</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.914</v>
+        <v>-0.91</v>
       </c>
       <c r="E2">
-        <v>-1.737</v>
+        <v>-1.74</v>
       </c>
       <c r="F2">
         <v>-0.09</v>
@@ -1799,7 +1799,7 @@
         <v>0.03</v>
       </c>
       <c r="H2">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
         <v>0.42</v>
@@ -1822,25 +1822,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.925</v>
+        <v>-0.93</v>
       </c>
       <c r="E3">
-        <v>-1.844</v>
+        <v>-1.84</v>
       </c>
       <c r="F3">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="G3">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
         <v>0.22</v>
       </c>
       <c r="I3">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1860,25 +1860,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.927</v>
+        <v>-0.93</v>
       </c>
       <c r="E4">
-        <v>-1.699</v>
+        <v>-1.7</v>
       </c>
       <c r="F4">
-        <v>-0.155</v>
+        <v>-0.15</v>
       </c>
       <c r="G4">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="H4">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="I4">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1963,19 +1963,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="F2">
-        <v>0.914</v>
+        <v>0.91</v>
       </c>
       <c r="G2">
         <v>0.03</v>
       </c>
       <c r="H2">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
         <v>0.42</v>
@@ -1998,25 +1998,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.396</v>
+        <v>0.4</v>
       </c>
       <c r="E3">
-        <v>0.158</v>
+        <v>0.16</v>
       </c>
       <c r="F3">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
       <c r="G3">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
         <v>0.22</v>
       </c>
       <c r="I3">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -2036,25 +2036,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.396</v>
+        <v>0.4</v>
       </c>
       <c r="E4">
-        <v>0.183</v>
+        <v>0.18</v>
       </c>
       <c r="F4">
-        <v>0.857</v>
+        <v>0.86</v>
       </c>
       <c r="G4">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="H4">
-        <v>0.155</v>
+        <v>0.16</v>
       </c>
       <c r="I4">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="J4">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.821</v>
+        <v>-0.82</v>
       </c>
       <c r="E2">
-        <v>-1.648</v>
+        <v>-1.65</v>
       </c>
       <c r="F2">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="G2">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -2174,19 +2174,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.849</v>
+        <v>-0.85</v>
       </c>
       <c r="E3">
-        <v>-1.712</v>
+        <v>-1.71</v>
       </c>
       <c r="F3">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="I3">
         <v>0.44</v>
@@ -2212,22 +2212,22 @@
         <v>-0.83</v>
       </c>
       <c r="E4">
-        <v>-1.754</v>
+        <v>-1.75</v>
       </c>
       <c r="F4">
-        <v>0.093</v>
+        <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="H4">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="I4">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="J4">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -2247,25 +2247,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.851</v>
+        <v>-0.85</v>
       </c>
       <c r="E5">
-        <v>-1.717</v>
+        <v>-1.72</v>
       </c>
       <c r="F5">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="G5">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="H5">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -2285,25 +2285,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.826</v>
+        <v>-0.83</v>
       </c>
       <c r="E6">
-        <v>-1.619</v>
+        <v>-1.62</v>
       </c>
       <c r="F6">
-        <v>-0.034</v>
+        <v>-0.03</v>
       </c>
       <c r="G6">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="H6">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="I6">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2323,25 +2323,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.849</v>
+        <v>-0.85</v>
       </c>
       <c r="E7">
-        <v>-1.709</v>
+        <v>-1.71</v>
       </c>
       <c r="F7">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G7">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H7">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="I7">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="J7">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2429,19 +2429,19 @@
         <v>0.44</v>
       </c>
       <c r="E2">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="F2">
-        <v>1.007</v>
+        <v>1.01</v>
       </c>
       <c r="G2">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="H2">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -2461,19 +2461,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="E3">
         <v>0.18</v>
       </c>
       <c r="F3">
-        <v>1.014</v>
+        <v>1.01</v>
       </c>
       <c r="G3">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="H3">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="I3">
         <v>0.44</v>
@@ -2496,25 +2496,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.436</v>
+        <v>0.44</v>
       </c>
       <c r="E4">
-        <v>0.173</v>
+        <v>0.17</v>
       </c>
       <c r="F4">
-        <v>1.097</v>
+        <v>1.1</v>
       </c>
       <c r="G4">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="H4">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="I4">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="J4">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -2534,25 +2534,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="E5">
         <v>0.18</v>
       </c>
       <c r="F5">
-        <v>1.014</v>
+        <v>1.01</v>
       </c>
       <c r="G5">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="H5">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -2572,25 +2572,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="E6">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>0.967</v>
+        <v>0.97</v>
       </c>
       <c r="G6">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="H6">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
       <c r="I6">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2610,25 +2610,25 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="E7">
-        <v>0.181</v>
+        <v>0.18</v>
       </c>
       <c r="F7">
-        <v>1.011</v>
+        <v>1.01</v>
       </c>
       <c r="G7">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="H7">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="I7">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="J7">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
